--- a/Confusion Matrices.xlsx
+++ b/Confusion Matrices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\fabric_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5593CC79-D959-4312-B2A6-C8DEE6BFB873}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1649847-8326-41B3-94EC-2B6579D40556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="12090" windowWidth="21600" windowHeight="18900" firstSheet="1" activeTab="5" xr2:uid="{9522E251-0896-432A-8B64-9BDC696593D2}"/>
+    <workbookView xWindow="12900" yWindow="3210" windowWidth="38700" windowHeight="15435" firstSheet="1" activeTab="7" xr2:uid="{9522E251-0896-432A-8B64-9BDC696593D2}"/>
   </bookViews>
   <sheets>
     <sheet name="No Rotation" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <sheet name="Rotation + Hist Equalization" sheetId="6" r:id="rId3"/>
     <sheet name="Rotation + Hist. Eq. + Whites" sheetId="8" r:id="rId4"/>
     <sheet name="2 CLF" sheetId="1" r:id="rId5"/>
-    <sheet name="2CLF (split)" sheetId="9" r:id="rId6"/>
+    <sheet name="2CLF Hist Eq (split)" sheetId="9" r:id="rId6"/>
+    <sheet name="2CLF no Hist Eq (split)" sheetId="10" r:id="rId7"/>
+    <sheet name="2CLF Hist Eq Later in Pipeline" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="18">
   <si>
     <t>True Condition</t>
   </si>
@@ -196,14 +198,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -537,10 +539,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="C1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="9"/>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
@@ -557,7 +559,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -575,7 +577,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
@@ -693,7 +695,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,10 +708,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="9"/>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -727,7 +729,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -745,7 +747,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
@@ -875,10 +877,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="9"/>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -896,7 +898,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -914,7 +916,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1044,10 +1046,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="9"/>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
@@ -1064,7 +1066,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1082,7 +1084,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1212,10 +1214,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="9"/>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
@@ -1232,7 +1234,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1250,7 +1252,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1367,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003D6EE5-16DD-498D-AF3E-277589ED4D19}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,14 +1385,14 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="9"/>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1407,25 +1409,25 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
       </c>
       <c r="E3" s="1">
         <f>C3+D3</f>
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1433,11 +1435,11 @@
         <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1">
         <f>C4+D4</f>
-        <v>6</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1447,15 +1449,15 @@
       </c>
       <c r="C5" s="1">
         <f>C3+C4</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1">
         <f>D3+D4</f>
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1">
         <f>C5+D5</f>
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1547,7 +1549,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="8">
-        <v>0.998571428571428</v>
+        <v>0.99736363636363601</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1556,14 +1558,14 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="9"/>
+      <c r="C15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1580,37 +1582,37 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="5">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D17" s="6">
         <v>0</v>
       </c>
       <c r="E17" s="1">
         <f>C17+D17</f>
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D18" s="5">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E18" s="1">
         <f>C18+D18</f>
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1620,11 +1622,386 @@
       </c>
       <c r="C19" s="1">
         <f>C17+C18</f>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D19" s="1">
         <f>D17+D18</f>
-        <v>57</v>
+        <v>16</v>
+      </c>
+      <c r="E19" s="1">
+        <f>C19+D19</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4">
+        <f>C17/C19</f>
+        <v>0.91379310344827591</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="4">
+        <f>D18/D19</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4">
+        <f>D17/D19</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="4">
+        <f>C18/C19</f>
+        <v>8.6206896551724144E-2</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="4">
+        <f>C17/E17</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="4">
+        <f>D18/E18</f>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="4">
+        <f>(C17+D18)/E19</f>
+        <v>0.9242424242424242</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0.960330578512396</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A17:A18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97844071-2DA8-4CA8-80D9-B1DB7503F81B}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>63</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <f>C3+D3</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1">
+        <f>C4+D4</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <f>C3+C4</f>
+        <v>63</v>
+      </c>
+      <c r="D5" s="1">
+        <f>D3+D4</f>
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <f>C5+D5</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <f>C3/C5</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <f>D4/D5</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <f>D3/D5</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
+        <f>C4/C5</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4">
+        <f>C3/E3</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4">
+        <f>D4/E4</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4">
+        <f>(C3+D4)/E5</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.996428571428571</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5">
+        <v>113</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <f>C17+D17</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1">
+        <f>C18+D18</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1">
+        <f>C17+C18</f>
+        <v>116</v>
+      </c>
+      <c r="D19" s="1">
+        <f>D17+D18</f>
+        <v>56</v>
       </c>
       <c r="E19" s="1">
         <f>C19+D19</f>
@@ -1637,7 +2014,7 @@
       </c>
       <c r="B20" s="4">
         <f>C17/C19</f>
-        <v>0.97391304347826091</v>
+        <v>0.97413793103448276</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1673,7 +2050,7 @@
       </c>
       <c r="B23" s="4">
         <f>C18/C19</f>
-        <v>2.6086956521739129E-2</v>
+        <v>2.5862068965517241E-2</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1697,7 +2074,7 @@
       </c>
       <c r="B25" s="4">
         <f>D18/E18</f>
-        <v>0.95</v>
+        <v>0.94915254237288138</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1720,7 +2097,382 @@
         <v>15</v>
       </c>
       <c r="B27" s="8">
-        <v>0.986611570247934</v>
+        <v>0.98273255813953497</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A17:A18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0CD1D2-EA33-40D1-B603-FF400E763569}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>63</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <f>C3+D3</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1">
+        <f>C4+D4</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <f>C3+C4</f>
+        <v>63</v>
+      </c>
+      <c r="D5" s="1">
+        <f>D3+D4</f>
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <f>C5+D5</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <f>C3/C5</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <f>D4/D5</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <f>D3/D5</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
+        <f>C4/C5</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4">
+        <f>C3/E3</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4">
+        <f>D4/E4</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4">
+        <f>(C3+D4)/E5</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.996428571428571</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5">
+        <v>111</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <f>C17+D17</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1">
+        <f>C18+D18</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1">
+        <f>C17+C18</f>
+        <v>116</v>
+      </c>
+      <c r="D19" s="1">
+        <f>D17+D18</f>
+        <v>56</v>
+      </c>
+      <c r="E19" s="1">
+        <f>C19+D19</f>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4">
+        <f>C17/C19</f>
+        <v>0.9568965517241379</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="4">
+        <f>D18/D19</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4">
+        <f>D17/D19</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="4">
+        <f>C18/C19</f>
+        <v>4.3103448275862072E-2</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="4">
+        <f>C17/E17</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="4">
+        <f>D18/E18</f>
+        <v>0.91803278688524592</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="4">
+        <f>(C17+D18)/E19</f>
+        <v>0.97093023255813948</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0.97305785123966904</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>

--- a/Confusion Matrices.xlsx
+++ b/Confusion Matrices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\fabric_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1649847-8326-41B3-94EC-2B6579D40556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B775E1-D659-43A8-B063-F7A3BA99776E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="3210" windowWidth="38700" windowHeight="15435" firstSheet="1" activeTab="7" xr2:uid="{9522E251-0896-432A-8B64-9BDC696593D2}"/>
+    <workbookView xWindow="-37620" yWindow="780" windowWidth="28800" windowHeight="15435" firstSheet="6" activeTab="10" xr2:uid="{9522E251-0896-432A-8B64-9BDC696593D2}"/>
   </bookViews>
   <sheets>
     <sheet name="No Rotation" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="2CLF Hist Eq (split)" sheetId="9" r:id="rId6"/>
     <sheet name="2CLF no Hist Eq (split)" sheetId="10" r:id="rId7"/>
     <sheet name="2CLF Hist Eq Later in Pipeline" sheetId="12" r:id="rId8"/>
+    <sheet name="Wiener 1CLF no Shift Hist" sheetId="13" r:id="rId9"/>
+    <sheet name="Wiener 2CLF" sheetId="14" r:id="rId10"/>
+    <sheet name="Wiener 1CLF GrayScale" sheetId="16" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="18">
   <si>
     <t>True Condition</t>
   </si>
@@ -690,6 +693,578 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5330ADE-0CB7-4E9D-91DA-AF32E7ECCDBE}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>63</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <f>C3+D3</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1">
+        <f>C4+D4</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <f>C3+C4</f>
+        <v>63</v>
+      </c>
+      <c r="D5" s="1">
+        <f>D3+D4</f>
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <f>C5+D5</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <f>C3/C5</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <f>D4/D5</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <f>D3/D5</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
+        <f>C4/C5</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4">
+        <f>C3/E3</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4">
+        <f>D4/E4</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4">
+        <f>(C3+D4)/E5</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.99185714285714299</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5">
+        <v>111</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <f>C17+D17</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1">
+        <f>C18+D18</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1">
+        <f>C17+C18</f>
+        <v>116</v>
+      </c>
+      <c r="D19" s="1">
+        <f>D17+D18</f>
+        <v>56</v>
+      </c>
+      <c r="E19" s="1">
+        <f>C19+D19</f>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4">
+        <f>C17/C19</f>
+        <v>0.9568965517241379</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="4">
+        <f>D18/D19</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4">
+        <f>D17/D19</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="4">
+        <f>C18/C19</f>
+        <v>4.3103448275862072E-2</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="4">
+        <f>C17/E17</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="4">
+        <f>D18/E18</f>
+        <v>0.91803278688524592</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="4">
+        <f>(C17+D18)/E19</f>
+        <v>0.97093023255813948</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0.977616279069767</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A17:A18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7078021E-296F-4C2D-AD09-4F7FA99D0D36}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>135</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <f>C3+D3</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6">
+        <v>44</v>
+      </c>
+      <c r="D4" s="5">
+        <v>61</v>
+      </c>
+      <c r="E4" s="1">
+        <f>C4+D4</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <f>C4+C3</f>
+        <v>179</v>
+      </c>
+      <c r="D5" s="1">
+        <f>D3+D4</f>
+        <v>63</v>
+      </c>
+      <c r="E5" s="1">
+        <f>C5+D5</f>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <f>C3/C5</f>
+        <v>0.75418994413407825</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <f>D4/D5</f>
+        <v>0.96825396825396826</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <f>D3/D5</f>
+        <v>3.1746031746031744E-2</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
+        <f>C4/C5</f>
+        <v>0.24581005586592178</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4">
+        <f>C3/E3</f>
+        <v>0.98540145985401462</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4">
+        <f>D4/E4</f>
+        <v>0.580952380952381</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4">
+        <f>(C3+D4)/E5</f>
+        <v>0.80991735537190079</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.81925619834710695</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484412E4-3931-4FF6-B5E6-5643FC7744E1}">
   <dimension ref="A1:E13"/>
@@ -1033,7 +1608,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1048576"/>
+      <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2119,8 +2694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0CD1D2-EA33-40D1-B603-FF400E763569}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="A2:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2488,4 +3063,197 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17704857-D075-4099-9B74-9F86EEA25D02}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>174</v>
+      </c>
+      <c r="D3" s="6">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <f>C3+D3</f>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1">
+        <f>C4+D4</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>179</v>
+      </c>
+      <c r="D5" s="1">
+        <f>D3+D4</f>
+        <v>67</v>
+      </c>
+      <c r="E5" s="1">
+        <f>C5+D5</f>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <f>C3/C5</f>
+        <v>0.97206703910614523</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <f>D4/D5</f>
+        <v>0.92537313432835822</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <f>D3/D5</f>
+        <v>7.4626865671641784E-2</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
+        <f>C4/C5</f>
+        <v>5.5865921787709499E-3</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4">
+        <f>C3/E3</f>
+        <v>0.97206703910614523</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4">
+        <f>D4/E4</f>
+        <v>0.98412698412698407</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4">
+        <f>(C3+D4)/E5</f>
+        <v>0.95934959349593496</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.97107438016528902</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Confusion Matrices.xlsx
+++ b/Confusion Matrices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\fabric_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B775E1-D659-43A8-B063-F7A3BA99776E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB1205F-2F36-4F7B-BD1D-8C711A643B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37620" yWindow="780" windowWidth="28800" windowHeight="15435" firstSheet="6" activeTab="10" xr2:uid="{9522E251-0896-432A-8B64-9BDC696593D2}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="38700" windowHeight="15435" firstSheet="6" activeTab="10" xr2:uid="{9522E251-0896-432A-8B64-9BDC696593D2}"/>
   </bookViews>
   <sheets>
     <sheet name="No Rotation" sheetId="2" r:id="rId1"/>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
